--- a/StudentDetails.xlsx
+++ b/StudentDetails.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudentRecords\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\com.ECSTraining\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,16 +38,16 @@
     <t>Maths</t>
   </si>
   <si>
-    <t>Anu</t>
-  </si>
-  <si>
-    <t>Syali</t>
-  </si>
-  <si>
-    <t>mia</t>
-  </si>
-  <si>
     <t>Admission_no</t>
+  </si>
+  <si>
+    <t>Lilly</t>
+  </si>
+  <si>
+    <t>Miya</t>
+  </si>
+  <si>
+    <t>Serene</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,7 +378,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -398,7 +398,7 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>76</v>
@@ -415,7 +415,7 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>74</v>
@@ -449,7 +449,7 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>23</v>
